--- a/Assets/Shared/ExcelImporter/Excels/Player/ArtifactCombinationDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/ArtifactCombinationDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5157A34-C223-422E-B5C6-DAF87E515D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="ArtifactCombinationExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -80,15 +79,6 @@
   </si>
   <si>
     <t>여왕의 가호</t>
-  </si>
-  <si>
-    <t>6,7,9,10</t>
-  </si>
-  <si>
-    <t>6,7,11,12</t>
-  </si>
-  <si>
-    <t>9,10,14,15</t>
   </si>
   <si>
     <r>
@@ -130,12 +120,120 @@
     <t>ImagePath</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>6,7,1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,14</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물통</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>빨간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>마우스</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_MACHINE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_BEAST</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_DEVIL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_UNDEAD</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_ELF</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_ELEMENTAL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_HUMAN</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -185,6 +283,24 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -201,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,11 +325,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -235,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -449,15 +586,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -471,6 +606,7 @@
     <col min="9" max="9" width="7.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -499,22 +635,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
@@ -557,7 +693,9 @@
       <c r="M2" s="4">
         <v>0</v>
       </c>
-      <c r="N2" s="4"/>
+      <c r="N2" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="O2" s="4"/>
       <c r="P2" s="4" t="s">
         <v>10</v>
@@ -614,10 +752,12 @@
       <c r="M3" s="11">
         <v>0</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -671,7 +811,9 @@
       <c r="M4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" s="5"/>
+      <c r="N4" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -726,7 +868,9 @@
       <c r="M5" s="5">
         <v>0</v>
       </c>
-      <c r="N5" s="5"/>
+      <c r="N5" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -781,7 +925,9 @@
       <c r="M6" s="5">
         <v>0</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="N6" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -803,8 +949,8 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
+      <c r="C7" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="9">
         <v>8</v>
@@ -835,14 +981,20 @@
       </c>
       <c r="M7" s="10">
         <v>0</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>21</v>
+      <c r="B8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D8" s="9">
         <v>0</v>
@@ -873,14 +1025,20 @@
       </c>
       <c r="M8" s="10">
         <v>0</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -911,6 +1069,9 @@
       </c>
       <c r="M9" s="10">
         <v>0</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
